--- a/Semaine 4/Journal de travail - Dylan Metral.xlsx
+++ b/Semaine 4/Journal de travail - Dylan Metral.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11988"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -73,19 +73,19 @@
     <t>40min</t>
   </si>
   <si>
-    <t xml:space="preserve">Date : 28.09.2018 </t>
-  </si>
-  <si>
     <t>Mise à jour de la documentation sur la sauvegarde du serveur de fichier</t>
   </si>
   <si>
     <t xml:space="preserve">Date : 29.09.2018 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date : 27.09.2018 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -173,36 +173,36 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,27 +513,27 @@
   </sheetPr>
   <dimension ref="B3:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="72.140625" customWidth="1"/>
-    <col min="6" max="7" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="72.109375" customWidth="1"/>
+    <col min="6" max="7" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -543,61 +543,61 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="10"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
@@ -607,27 +607,27 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -637,27 +637,27 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
@@ -667,29 +667,29 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10"/>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -697,49 +697,49 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="10"/>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -747,76 +747,103 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="8" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="10"/>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="10"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="10"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="10"/>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="10"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="10"/>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="10"/>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="B16:G16"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="F29:G30"/>
@@ -833,33 +860,6 @@
     <mergeCell ref="D29:E30"/>
     <mergeCell ref="D31:E32"/>
     <mergeCell ref="D11:E12"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="F8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
